--- a/A14K/イベントID.xlsx
+++ b/A14K/イベントID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\myTest\A14K\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\117029\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B0E8BD-FCE2-451E-B0DA-DBC40B1272C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50134DAA-6B22-4483-8E71-3C2067C9A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="570" windowWidth="19440" windowHeight="15600" xr2:uid="{3BACB477-2D53-4524-8221-F2A5A5E39F3D}"/>
+    <workbookView xWindow="59415" yWindow="1845" windowWidth="21600" windowHeight="11295" xr2:uid="{3BACB477-2D53-4524-8221-F2A5A5E39F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="event UI" sheetId="1" r:id="rId1"/>
@@ -5207,7 +5207,7 @@
   </si>
   <si>
     <t>値(引数)6</t>
-    <rPh sb="9" eb="11">
+    <rPh sb="0" eb="6">
       <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -5230,17 +5230,8 @@
   </si>
   <si>
     <t>値(引数)7</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒキスウ</t>
+    <rPh sb="0" eb="6">
+      <t>セッテイフカノウセイヒキスウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -5440,7 +5431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5486,22 +5477,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -5513,9 +5501,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -5525,13 +5510,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6516,9 +6498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE7F362-8091-4CCE-9036-155B0E1B1408}">
   <dimension ref="A1:M1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A797" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A806" sqref="A806"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A720" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C994" sqref="C994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -17631,240 +17613,240 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="504" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="18"/>
-      <c r="C504" s="20" t="s">
+    <row r="504" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="17"/>
+      <c r="C504" s="19" t="s">
         <v>1509</v>
       </c>
-      <c r="D504" s="20"/>
-      <c r="E504" s="20" t="s">
+      <c r="D504" s="19"/>
+      <c r="E504" s="19" t="s">
         <v>1523</v>
       </c>
-      <c r="F504" s="20" t="s">
+      <c r="F504" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G504" s="20" t="s">
+      <c r="G504" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J504" s="7"/>
     </row>
-    <row r="505" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A505" s="18"/>
-      <c r="C505" s="20" t="s">
+    <row r="505" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="17"/>
+      <c r="C505" s="19" t="s">
         <v>1510</v>
       </c>
-      <c r="D505" s="20"/>
-      <c r="E505" s="20" t="s">
+      <c r="D505" s="19"/>
+      <c r="E505" s="19" t="s">
         <v>1524</v>
       </c>
-      <c r="F505" s="20" t="s">
+      <c r="F505" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G505" s="20" t="s">
+      <c r="G505" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J505" s="7"/>
     </row>
-    <row r="506" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A506" s="18"/>
-      <c r="C506" s="20" t="s">
+    <row r="506" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="17"/>
+      <c r="C506" s="19" t="s">
         <v>1511</v>
       </c>
-      <c r="D506" s="20"/>
-      <c r="E506" s="20" t="s">
+      <c r="D506" s="19"/>
+      <c r="E506" s="19" t="s">
         <v>1525</v>
       </c>
-      <c r="F506" s="20" t="s">
+      <c r="F506" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G506" s="20" t="s">
+      <c r="G506" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J506" s="7"/>
     </row>
-    <row r="507" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A507" s="18"/>
-      <c r="C507" s="20" t="s">
+    <row r="507" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="17"/>
+      <c r="C507" s="19" t="s">
         <v>1512</v>
       </c>
-      <c r="D507" s="20"/>
-      <c r="E507" s="20" t="s">
+      <c r="D507" s="19"/>
+      <c r="E507" s="19" t="s">
         <v>1526</v>
       </c>
-      <c r="F507" s="20" t="s">
+      <c r="F507" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G507" s="20" t="s">
+      <c r="G507" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J507" s="7"/>
     </row>
-    <row r="508" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A508" s="18"/>
-      <c r="C508" s="20" t="s">
+    <row r="508" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="17"/>
+      <c r="C508" s="19" t="s">
         <v>1513</v>
       </c>
-      <c r="D508" s="20"/>
-      <c r="E508" s="20" t="s">
+      <c r="D508" s="19"/>
+      <c r="E508" s="19" t="s">
         <v>1527</v>
       </c>
-      <c r="F508" s="20" t="s">
+      <c r="F508" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G508" s="20" t="s">
+      <c r="G508" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J508" s="7"/>
     </row>
-    <row r="509" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A509" s="18"/>
-      <c r="C509" s="20" t="s">
+    <row r="509" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="17"/>
+      <c r="C509" s="19" t="s">
         <v>1514</v>
       </c>
-      <c r="D509" s="20"/>
-      <c r="E509" s="20" t="s">
+      <c r="D509" s="19"/>
+      <c r="E509" s="19" t="s">
         <v>1528</v>
       </c>
-      <c r="F509" s="20" t="s">
+      <c r="F509" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G509" s="20" t="s">
+      <c r="G509" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J509" s="7"/>
     </row>
-    <row r="510" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A510" s="18"/>
-      <c r="C510" s="20" t="s">
+    <row r="510" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="17"/>
+      <c r="C510" s="19" t="s">
         <v>1515</v>
       </c>
-      <c r="D510" s="20"/>
-      <c r="E510" s="20" t="s">
+      <c r="D510" s="19"/>
+      <c r="E510" s="19" t="s">
         <v>1529</v>
       </c>
-      <c r="F510" s="20" t="s">
+      <c r="F510" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G510" s="20" t="s">
+      <c r="G510" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J510" s="7"/>
     </row>
-    <row r="511" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A511" s="18"/>
-      <c r="C511" s="20" t="s">
+    <row r="511" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="17"/>
+      <c r="C511" s="19" t="s">
         <v>1516</v>
       </c>
-      <c r="D511" s="20"/>
-      <c r="E511" s="20" t="s">
+      <c r="D511" s="19"/>
+      <c r="E511" s="19" t="s">
         <v>1530</v>
       </c>
-      <c r="F511" s="20" t="s">
+      <c r="F511" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G511" s="20" t="s">
+      <c r="G511" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J511" s="7"/>
     </row>
-    <row r="512" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A512" s="18"/>
-      <c r="C512" s="20" t="s">
+    <row r="512" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="17"/>
+      <c r="C512" s="19" t="s">
         <v>1517</v>
       </c>
-      <c r="D512" s="20"/>
-      <c r="E512" s="20" t="s">
+      <c r="D512" s="19"/>
+      <c r="E512" s="19" t="s">
         <v>1531</v>
       </c>
-      <c r="F512" s="20" t="s">
+      <c r="F512" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G512" s="20" t="s">
+      <c r="G512" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J512" s="7"/>
     </row>
-    <row r="513" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A513" s="18"/>
-      <c r="C513" s="20" t="s">
+    <row r="513" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="17"/>
+      <c r="C513" s="19" t="s">
         <v>1518</v>
       </c>
-      <c r="D513" s="20"/>
-      <c r="E513" s="20" t="s">
+      <c r="D513" s="19"/>
+      <c r="E513" s="19" t="s">
         <v>1532</v>
       </c>
-      <c r="F513" s="20" t="s">
+      <c r="F513" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G513" s="20" t="s">
+      <c r="G513" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J513" s="7"/>
     </row>
-    <row r="514" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A514" s="18"/>
-      <c r="C514" s="20" t="s">
+    <row r="514" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="17"/>
+      <c r="C514" s="19" t="s">
         <v>1519</v>
       </c>
-      <c r="D514" s="20"/>
-      <c r="E514" s="20" t="s">
+      <c r="D514" s="19"/>
+      <c r="E514" s="19" t="s">
         <v>1533</v>
       </c>
-      <c r="F514" s="20" t="s">
+      <c r="F514" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G514" s="20" t="s">
+      <c r="G514" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J514" s="7"/>
     </row>
-    <row r="515" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A515" s="18"/>
-      <c r="C515" s="20" t="s">
+    <row r="515" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="17"/>
+      <c r="C515" s="19" t="s">
         <v>1520</v>
       </c>
-      <c r="D515" s="20"/>
-      <c r="E515" s="20" t="s">
+      <c r="D515" s="19"/>
+      <c r="E515" s="19" t="s">
         <v>1534</v>
       </c>
-      <c r="F515" s="20" t="s">
+      <c r="F515" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G515" s="20" t="s">
+      <c r="G515" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J515" s="7"/>
     </row>
-    <row r="516" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A516" s="18"/>
-      <c r="C516" s="20" t="s">
+    <row r="516" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="17"/>
+      <c r="C516" s="19" t="s">
         <v>1521</v>
       </c>
-      <c r="D516" s="20"/>
-      <c r="E516" s="20" t="s">
+      <c r="D516" s="19"/>
+      <c r="E516" s="19" t="s">
         <v>1535</v>
       </c>
-      <c r="F516" s="20" t="s">
+      <c r="F516" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G516" s="20" t="s">
+      <c r="G516" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J516" s="7"/>
     </row>
-    <row r="517" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A517" s="18"/>
-      <c r="C517" s="20" t="s">
+    <row r="517" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="17"/>
+      <c r="C517" s="19" t="s">
         <v>1522</v>
       </c>
-      <c r="D517" s="20"/>
-      <c r="E517" s="20" t="s">
+      <c r="D517" s="19"/>
+      <c r="E517" s="19" t="s">
         <v>1536</v>
       </c>
-      <c r="F517" s="20" t="s">
+      <c r="F517" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G517" s="20" t="s">
+      <c r="G517" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J517" s="7"/>
@@ -18252,70 +18234,70 @@
       <c r="I533" s="11"/>
       <c r="J533" s="7"/>
     </row>
-    <row r="534" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A534" s="18"/>
-      <c r="C534" s="20" t="s">
+    <row r="534" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="17"/>
+      <c r="C534" s="19" t="s">
         <v>1503</v>
       </c>
-      <c r="D534" s="20"/>
-      <c r="E534" s="20" t="s">
+      <c r="D534" s="19"/>
+      <c r="E534" s="19" t="s">
         <v>1504</v>
       </c>
-      <c r="F534" s="20" t="s">
+      <c r="F534" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G534" s="20" t="s">
+      <c r="G534" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J534" s="7"/>
     </row>
-    <row r="535" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A535" s="18"/>
-      <c r="C535" s="20" t="s">
+    <row r="535" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="17"/>
+      <c r="C535" s="19" t="s">
         <v>1500</v>
       </c>
-      <c r="D535" s="20"/>
-      <c r="E535" s="20" t="s">
+      <c r="D535" s="19"/>
+      <c r="E535" s="19" t="s">
         <v>1505</v>
       </c>
-      <c r="F535" s="20" t="s">
+      <c r="F535" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G535" s="20" t="s">
+      <c r="G535" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J535" s="7"/>
     </row>
-    <row r="536" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A536" s="18"/>
-      <c r="C536" s="20" t="s">
+    <row r="536" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="17"/>
+      <c r="C536" s="19" t="s">
         <v>1501</v>
       </c>
-      <c r="D536" s="20"/>
-      <c r="E536" s="20" t="s">
+      <c r="D536" s="19"/>
+      <c r="E536" s="19" t="s">
         <v>1506</v>
       </c>
-      <c r="F536" s="20" t="s">
+      <c r="F536" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G536" s="20" t="s">
+      <c r="G536" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J536" s="7"/>
     </row>
-    <row r="537" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A537" s="18"/>
-      <c r="C537" s="20" t="s">
+    <row r="537" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="17"/>
+      <c r="C537" s="19" t="s">
         <v>1502</v>
       </c>
-      <c r="D537" s="20"/>
-      <c r="E537" s="20" t="s">
+      <c r="D537" s="19"/>
+      <c r="E537" s="19" t="s">
         <v>1507</v>
       </c>
-      <c r="F537" s="20" t="s">
+      <c r="F537" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="G537" s="20" t="s">
+      <c r="G537" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J537" s="7"/>
@@ -19404,104 +19386,104 @@
       <c r="I582" s="7"/>
       <c r="J582" s="7"/>
     </row>
-    <row r="583" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A583" s="18"/>
-      <c r="B583" s="21"/>
-      <c r="C583" s="22" t="s">
+    <row r="583" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A583" s="17"/>
+      <c r="B583" s="20"/>
+      <c r="C583" s="21" t="s">
         <v>1567</v>
       </c>
-      <c r="D583" s="22"/>
-      <c r="E583" s="22" t="s">
+      <c r="D583" s="21"/>
+      <c r="E583" s="21" t="s">
         <v>1570</v>
       </c>
-      <c r="F583" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G583" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H583" s="21"/>
-      <c r="I583" s="21"/>
+      <c r="F583" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G583" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H583" s="20"/>
+      <c r="I583" s="20"/>
       <c r="J583" s="7"/>
     </row>
-    <row r="584" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A584" s="18"/>
-      <c r="B584" s="21"/>
-      <c r="C584" s="22" t="s">
+    <row r="584" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A584" s="17"/>
+      <c r="B584" s="20"/>
+      <c r="C584" s="21" t="s">
         <v>1568</v>
       </c>
-      <c r="D584" s="22"/>
-      <c r="E584" s="22" t="s">
+      <c r="D584" s="21"/>
+      <c r="E584" s="21" t="s">
         <v>1571</v>
       </c>
-      <c r="F584" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G584" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H584" s="21"/>
-      <c r="I584" s="21"/>
+      <c r="F584" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G584" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H584" s="20"/>
+      <c r="I584" s="20"/>
       <c r="J584" s="7"/>
     </row>
-    <row r="585" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A585" s="18"/>
-      <c r="B585" s="21"/>
-      <c r="C585" s="22" t="s">
+    <row r="585" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A585" s="17"/>
+      <c r="B585" s="20"/>
+      <c r="C585" s="21" t="s">
         <v>1569</v>
       </c>
-      <c r="D585" s="22"/>
-      <c r="E585" s="22" t="s">
+      <c r="D585" s="21"/>
+      <c r="E585" s="21" t="s">
         <v>1572</v>
       </c>
-      <c r="F585" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G585" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H585" s="21"/>
-      <c r="I585" s="21"/>
+      <c r="F585" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G585" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H585" s="20"/>
+      <c r="I585" s="20"/>
       <c r="J585" s="7"/>
     </row>
-    <row r="586" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A586" s="18"/>
-      <c r="B586" s="21"/>
-      <c r="C586" s="22" t="s">
+    <row r="586" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A586" s="17"/>
+      <c r="B586" s="20"/>
+      <c r="C586" s="21" t="s">
         <v>1580</v>
       </c>
-      <c r="D586" s="22"/>
-      <c r="E586" s="23" t="s">
+      <c r="D586" s="21"/>
+      <c r="E586" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F586" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G586" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H586" s="21"/>
-      <c r="I586" s="21"/>
+      <c r="F586" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G586" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H586" s="20"/>
+      <c r="I586" s="20"/>
       <c r="J586" s="7"/>
     </row>
-    <row r="587" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A587" s="18"/>
-      <c r="B587" s="21"/>
-      <c r="C587" s="22" t="s">
+    <row r="587" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A587" s="17"/>
+      <c r="B587" s="20"/>
+      <c r="C587" s="21" t="s">
         <v>1581</v>
       </c>
-      <c r="D587" s="22"/>
-      <c r="E587" s="23" t="s">
+      <c r="D587" s="21"/>
+      <c r="E587" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="F587" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G587" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H587" s="21"/>
-      <c r="I587" s="21"/>
+      <c r="F587" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G587" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H587" s="20"/>
+      <c r="I587" s="20"/>
       <c r="J587" s="7"/>
     </row>
     <row r="588" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
@@ -20584,114 +20566,114 @@
       <c r="I632" s="7"/>
       <c r="J632" s="7"/>
     </row>
-    <row r="633" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A633" s="18"/>
-      <c r="B633" s="21"/>
-      <c r="C633" s="23" t="s">
+    <row r="633" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A633" s="17"/>
+      <c r="B633" s="20"/>
+      <c r="C633" s="22" t="s">
         <v>1575</v>
       </c>
-      <c r="D633" s="23" t="s">
-        <v>974</v>
-      </c>
-      <c r="E633" s="23" t="s">
+      <c r="D633" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="E633" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="F633" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G633" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H633" s="21"/>
-      <c r="I633" s="21"/>
+      <c r="F633" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G633" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H633" s="20"/>
+      <c r="I633" s="20"/>
       <c r="J633" s="7"/>
     </row>
-    <row r="634" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A634" s="18"/>
-      <c r="B634" s="21"/>
-      <c r="C634" s="23" t="s">
+    <row r="634" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A634" s="17"/>
+      <c r="B634" s="20"/>
+      <c r="C634" s="22" t="s">
         <v>1576</v>
       </c>
-      <c r="D634" s="23" t="s">
-        <v>974</v>
-      </c>
-      <c r="E634" s="23" t="s">
+      <c r="D634" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="E634" s="22" t="s">
         <v>1054</v>
       </c>
-      <c r="F634" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G634" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H634" s="21"/>
-      <c r="I634" s="21"/>
+      <c r="F634" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G634" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H634" s="20"/>
+      <c r="I634" s="20"/>
       <c r="J634" s="7"/>
     </row>
-    <row r="635" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A635" s="18"/>
-      <c r="B635" s="21"/>
-      <c r="C635" s="23" t="s">
+    <row r="635" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A635" s="17"/>
+      <c r="B635" s="20"/>
+      <c r="C635" s="22" t="s">
         <v>1577</v>
       </c>
-      <c r="D635" s="23" t="s">
-        <v>974</v>
-      </c>
-      <c r="E635" s="23" t="s">
+      <c r="D635" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="E635" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="F635" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G635" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H635" s="21"/>
-      <c r="I635" s="21"/>
+      <c r="F635" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G635" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H635" s="20"/>
+      <c r="I635" s="20"/>
       <c r="J635" s="7"/>
     </row>
-    <row r="636" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A636" s="18"/>
-      <c r="B636" s="21"/>
-      <c r="C636" s="23" t="s">
+    <row r="636" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A636" s="17"/>
+      <c r="B636" s="20"/>
+      <c r="C636" s="22" t="s">
         <v>1578</v>
       </c>
-      <c r="D636" s="23" t="s">
-        <v>974</v>
-      </c>
-      <c r="E636" s="23" t="s">
+      <c r="D636" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="E636" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F636" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G636" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H636" s="21"/>
-      <c r="I636" s="21"/>
+      <c r="F636" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G636" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H636" s="20"/>
+      <c r="I636" s="20"/>
       <c r="J636" s="7"/>
     </row>
-    <row r="637" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A637" s="18"/>
-      <c r="B637" s="21"/>
-      <c r="C637" s="23" t="s">
+    <row r="637" spans="1:10" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A637" s="17"/>
+      <c r="B637" s="20"/>
+      <c r="C637" s="22" t="s">
         <v>1579</v>
       </c>
-      <c r="D637" s="23" t="s">
-        <v>974</v>
-      </c>
-      <c r="E637" s="23" t="s">
+      <c r="D637" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="E637" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="F637" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G637" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H637" s="21"/>
-      <c r="I637" s="21"/>
+      <c r="F637" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G637" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H637" s="20"/>
+      <c r="I637" s="20"/>
       <c r="J637" s="7"/>
     </row>
     <row r="638" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
@@ -21458,7 +21440,7 @@
       <c r="E669" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F669" s="30" t="s">
+      <c r="F669" s="27" t="s">
         <v>1649</v>
       </c>
       <c r="G669" s="6" t="s">
@@ -21482,7 +21464,7 @@
       <c r="E670" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F670" s="30" t="s">
+      <c r="F670" s="27" t="s">
         <v>1649</v>
       </c>
       <c r="G670" s="6" t="s">
@@ -21506,7 +21488,7 @@
       <c r="E671" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F671" s="30" t="s">
+      <c r="F671" s="27" t="s">
         <v>1649</v>
       </c>
       <c r="G671" s="6" t="s">
@@ -21530,7 +21512,7 @@
       <c r="E672" s="6" t="s">
         <v>1186</v>
       </c>
-      <c r="F672" s="30" t="s">
+      <c r="F672" s="27" t="s">
         <v>1649</v>
       </c>
       <c r="G672" s="6" t="s">
@@ -21554,7 +21536,7 @@
       <c r="E673" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F673" s="30" t="s">
+      <c r="F673" s="27" t="s">
         <v>1649</v>
       </c>
       <c r="G673" s="6" t="s">
@@ -22116,253 +22098,253 @@
       <c r="I696" s="7"/>
       <c r="J696" s="7"/>
     </row>
-    <row r="697" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B697" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C697" s="26" t="s">
+    <row r="697" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B697" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C697" s="24" t="s">
         <v>1621</v>
       </c>
-      <c r="D697" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E697" s="26" t="s">
+      <c r="D697" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E697" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="F697" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G697" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I697" s="27"/>
+      <c r="F697" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G697" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I697" s="25"/>
       <c r="J697" s="7"/>
-      <c r="K697" s="25" t="s">
+      <c r="K697" s="23" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="698" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B698" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C698" s="26" t="s">
+    <row r="698" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B698" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C698" s="24" t="s">
         <v>1207</v>
       </c>
-      <c r="D698" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E698" s="26" t="s">
+      <c r="D698" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E698" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="F698" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G698" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I698" s="27"/>
+      <c r="F698" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G698" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I698" s="25"/>
       <c r="J698" s="7"/>
-      <c r="K698" s="25" t="s">
+      <c r="K698" s="23" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="699" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B699" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C699" s="26" t="s">
+    <row r="699" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B699" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C699" s="24" t="s">
         <v>1622</v>
       </c>
-      <c r="D699" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E699" s="26" t="s">
+      <c r="D699" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E699" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="F699" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G699" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I699" s="27"/>
+      <c r="F699" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G699" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I699" s="25"/>
       <c r="J699" s="7"/>
-      <c r="K699" s="25" t="s">
+      <c r="K699" s="23" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="700" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B700" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C700" s="26" t="s">
+    <row r="700" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B700" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C700" s="24" t="s">
         <v>1208</v>
       </c>
-      <c r="D700" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E700" s="26" t="s">
+      <c r="D700" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E700" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="F700" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G700" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I700" s="27"/>
+      <c r="F700" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G700" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I700" s="25"/>
       <c r="J700" s="7"/>
-      <c r="K700" s="25" t="s">
+      <c r="K700" s="23" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="701" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B701" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C701" s="26" t="s">
+    <row r="701" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B701" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C701" s="24" t="s">
         <v>1623</v>
       </c>
-      <c r="D701" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E701" s="26" t="s">
+      <c r="D701" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E701" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="F701" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G701" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I701" s="27"/>
+      <c r="F701" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G701" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I701" s="25"/>
       <c r="J701" s="7"/>
-      <c r="K701" s="25" t="s">
+      <c r="K701" s="23" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="702" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B702" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C702" s="26" t="s">
+    <row r="702" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B702" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C702" s="24" t="s">
         <v>1209</v>
       </c>
-      <c r="D702" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E702" s="26" t="s">
+      <c r="D702" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E702" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="F702" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G702" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I702" s="27"/>
+      <c r="F702" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G702" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I702" s="25"/>
       <c r="J702" s="7"/>
-      <c r="K702" s="25" t="s">
+      <c r="K702" s="23" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="703" spans="1:11" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A703" s="18"/>
-      <c r="B703" s="19" t="s">
-        <v>972</v>
-      </c>
-      <c r="C703" s="29" t="s">
+    <row r="703" spans="1:11" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A703" s="17"/>
+      <c r="B703" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C703" s="26" t="s">
         <v>1624</v>
       </c>
-      <c r="D703" s="29" t="s">
-        <v>974</v>
-      </c>
-      <c r="E703" s="29" t="s">
+      <c r="D703" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="E703" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="F703" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G703" s="29" t="s">
+      <c r="F703" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G703" s="26" t="s">
         <v>13</v>
       </c>
       <c r="J703" s="7"/>
-      <c r="K703" s="19" t="s">
+      <c r="K703" s="18" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="704" spans="1:11" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A704" s="18"/>
-      <c r="B704" s="19" t="s">
-        <v>972</v>
-      </c>
-      <c r="C704" s="29" t="s">
+    <row r="704" spans="1:11" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A704" s="17"/>
+      <c r="B704" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C704" s="26" t="s">
         <v>1625</v>
       </c>
-      <c r="D704" s="29" t="s">
-        <v>974</v>
-      </c>
-      <c r="E704" s="29" t="s">
+      <c r="D704" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="E704" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="F704" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G704" s="29" t="s">
+      <c r="F704" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G704" s="26" t="s">
         <v>13</v>
       </c>
       <c r="J704" s="7"/>
-      <c r="K704" s="19" t="s">
+      <c r="K704" s="18" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="705" spans="1:11" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A705" s="18"/>
-      <c r="B705" s="19" t="s">
-        <v>972</v>
-      </c>
-      <c r="C705" s="29" t="s">
+    <row r="705" spans="1:11" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A705" s="17"/>
+      <c r="B705" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C705" s="26" t="s">
         <v>1626</v>
       </c>
-      <c r="D705" s="29" t="s">
-        <v>974</v>
-      </c>
-      <c r="E705" s="29" t="s">
+      <c r="D705" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="E705" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="F705" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G705" s="29" t="s">
+      <c r="F705" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G705" s="26" t="s">
         <v>13</v>
       </c>
       <c r="J705" s="7"/>
-      <c r="K705" s="19" t="s">
+      <c r="K705" s="18" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="706" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B706" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C706" s="26" t="s">
+    <row r="706" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B706" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C706" s="24" t="s">
         <v>1210</v>
       </c>
-      <c r="D706" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E706" s="26" t="s">
+      <c r="D706" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E706" s="24" t="s">
         <v>1211</v>
       </c>
-      <c r="F706" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G706" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I706" s="27"/>
-      <c r="J706" s="27"/>
-      <c r="K706" s="25" t="s">
+      <c r="F706" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G706" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I706" s="25"/>
+      <c r="J706" s="25"/>
+      <c r="K706" s="23" t="s">
         <v>1630</v>
       </c>
     </row>
@@ -22558,28 +22540,28 @@
       <c r="I714" s="7"/>
       <c r="J714" s="7"/>
     </row>
-    <row r="715" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B715" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C715" s="26" t="s">
+    <row r="715" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B715" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C715" s="24" t="s">
         <v>1219</v>
       </c>
-      <c r="D715" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E715" s="26" t="s">
+      <c r="D715" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E715" s="24" t="s">
         <v>1211</v>
       </c>
-      <c r="F715" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G715" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I715" s="27"/>
-      <c r="J715" s="27"/>
-      <c r="K715" s="25" t="s">
+      <c r="F715" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G715" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I715" s="25"/>
+      <c r="J715" s="25"/>
+      <c r="K715" s="23" t="s">
         <v>1630</v>
       </c>
     </row>
@@ -22607,54 +22589,54 @@
       <c r="I716" s="7"/>
       <c r="J716" s="7"/>
     </row>
-    <row r="717" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A717" s="12"/>
-      <c r="B717" s="15" t="s">
-        <v>972</v>
-      </c>
-      <c r="C717" s="28" t="s">
+      <c r="B717" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C717" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="D717" s="28" t="s">
-        <v>974</v>
-      </c>
-      <c r="E717" s="28" t="s">
+      <c r="D717" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="E717" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="F717" s="30" t="s">
+      <c r="F717" s="27" t="s">
         <v>1570</v>
       </c>
-      <c r="G717" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I717" s="16"/>
-      <c r="J717" s="16"/>
-      <c r="K717" s="17" t="s">
+      <c r="G717" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I717" s="15"/>
+      <c r="J717" s="15"/>
+      <c r="K717" s="16" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="718" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B718" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C718" s="26" t="s">
+    <row r="718" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B718" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C718" s="24" t="s">
         <v>1222</v>
       </c>
-      <c r="D718" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E718" s="26" t="s">
+      <c r="D718" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E718" s="24" t="s">
         <v>1223</v>
       </c>
-      <c r="F718" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G718" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I718" s="27"/>
-      <c r="J718" s="27"/>
-      <c r="K718" s="31" t="s">
+      <c r="F718" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G718" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I718" s="25"/>
+      <c r="J718" s="25"/>
+      <c r="K718" s="28" t="s">
         <v>1634</v>
       </c>
     </row>
@@ -24199,228 +24181,228 @@
       <c r="I783" s="7"/>
       <c r="J783" s="7"/>
     </row>
-    <row r="784" spans="2:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B784" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C784" s="26" t="s">
+    <row r="784" spans="2:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B784" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C784" s="24" t="s">
         <v>1292</v>
       </c>
-      <c r="D784" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E784" s="26" t="s">
+      <c r="D784" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E784" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="F784" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G784" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I784" s="27"/>
-      <c r="J784" s="27"/>
-      <c r="K784" s="25" t="s">
+      <c r="F784" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G784" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I784" s="25"/>
+      <c r="J784" s="25"/>
+      <c r="K784" s="23" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="785" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B785" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C785" s="26" t="s">
+    <row r="785" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B785" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C785" s="24" t="s">
         <v>1293</v>
       </c>
-      <c r="D785" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E785" s="26" t="s">
+      <c r="D785" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E785" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="F785" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G785" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I785" s="27"/>
-      <c r="J785" s="27"/>
-      <c r="K785" s="25" t="s">
+      <c r="F785" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G785" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I785" s="25"/>
+      <c r="J785" s="25"/>
+      <c r="K785" s="23" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="786" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B786" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C786" s="26" t="s">
+    <row r="786" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B786" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C786" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D786" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E786" s="26" t="s">
+      <c r="D786" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E786" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="F786" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G786" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I786" s="27"/>
-      <c r="J786" s="27"/>
-      <c r="K786" s="25" t="s">
+      <c r="F786" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G786" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I786" s="25"/>
+      <c r="J786" s="25"/>
+      <c r="K786" s="23" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="787" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B787" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C787" s="26" t="s">
+    <row r="787" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B787" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C787" s="24" t="s">
         <v>1295</v>
       </c>
-      <c r="D787" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E787" s="26" t="s">
+      <c r="D787" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E787" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="F787" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G787" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I787" s="27"/>
-      <c r="J787" s="27"/>
-      <c r="K787" s="25" t="s">
+      <c r="F787" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G787" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I787" s="25"/>
+      <c r="J787" s="25"/>
+      <c r="K787" s="23" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="788" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B788" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C788" s="26" t="s">
+    <row r="788" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B788" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C788" s="24" t="s">
         <v>1296</v>
       </c>
-      <c r="D788" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E788" s="26" t="s">
+      <c r="D788" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E788" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="F788" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G788" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I788" s="27"/>
-      <c r="J788" s="27"/>
-      <c r="K788" s="25" t="s">
+      <c r="F788" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G788" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I788" s="25"/>
+      <c r="J788" s="25"/>
+      <c r="K788" s="23" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="789" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B789" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C789" s="26" t="s">
+    <row r="789" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B789" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C789" s="24" t="s">
         <v>1297</v>
       </c>
-      <c r="D789" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E789" s="26" t="s">
+      <c r="D789" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E789" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="F789" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G789" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I789" s="27"/>
-      <c r="J789" s="27"/>
-      <c r="K789" s="25" t="s">
+      <c r="F789" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G789" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I789" s="25"/>
+      <c r="J789" s="25"/>
+      <c r="K789" s="23" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="790" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B790" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C790" s="26" t="s">
+    <row r="790" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B790" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C790" s="24" t="s">
         <v>1298</v>
       </c>
-      <c r="D790" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E790" s="26" t="s">
+      <c r="D790" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E790" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="F790" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G790" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I790" s="27"/>
-      <c r="J790" s="27"/>
-      <c r="K790" s="25" t="s">
+      <c r="F790" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G790" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I790" s="25"/>
+      <c r="J790" s="25"/>
+      <c r="K790" s="23" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="791" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B791" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C791" s="26" t="s">
+    <row r="791" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B791" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C791" s="24" t="s">
         <v>1299</v>
       </c>
-      <c r="D791" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E791" s="26" t="s">
+      <c r="D791" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E791" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="F791" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G791" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I791" s="27"/>
-      <c r="J791" s="27"/>
-      <c r="K791" s="25" t="s">
+      <c r="F791" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G791" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I791" s="25"/>
+      <c r="J791" s="25"/>
+      <c r="K791" s="23" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="792" spans="1:11" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B792" s="25" t="s">
-        <v>972</v>
-      </c>
-      <c r="C792" s="26" t="s">
+    <row r="792" spans="1:11" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B792" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C792" s="24" t="s">
         <v>1300</v>
       </c>
-      <c r="D792" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="E792" s="26" t="s">
+      <c r="D792" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E792" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="F792" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G792" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I792" s="27"/>
-      <c r="J792" s="27"/>
-      <c r="K792" s="25" t="s">
+      <c r="F792" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G792" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I792" s="25"/>
+      <c r="J792" s="25"/>
+      <c r="K792" s="23" t="s">
         <v>1645</v>
       </c>
     </row>
